--- a/base/src/main/resources/excelTemp/st008_excel.xlsx
+++ b/base/src/main/resources/excelTemp/st008_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\yangjae\seoul_ams\seoul_ams\base\src\main\resources\excelTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B579B548-F27B-4467-9E26-B7AD9C900752}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF35F8A-C31B-4DC9-B701-57BB30450A41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25635" windowHeight="9615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>기록물 반출서</t>
   </si>
@@ -59,15 +59,6 @@
   </si>
   <si>
     <t>Title</t>
-  </si>
-  <si>
-    <t>서울시 보존과</t>
-  </si>
-  <si>
-    <t>주무관</t>
-  </si>
-  <si>
-    <t>기록관</t>
   </si>
   <si>
     <t>반입예정일</t>
@@ -114,13 +105,17 @@
   <si>
     <t>Published 
 Status</t>
+  </si>
+  <si>
+    <t>Container</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -154,6 +149,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -321,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -337,6 +340,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,47 +391,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:N996"/>
+  <dimension ref="B1:O996"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -724,194 +730,191 @@
     <col min="12" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="11.25" customHeight="1"/>
-    <row r="2" spans="2:14" ht="11.25" customHeight="1"/>
-    <row r="3" spans="2:14" ht="24" customHeight="1">
-      <c r="B3" s="5" t="s">
+    <row r="1" spans="2:15" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:15" ht="11.25" customHeight="1"/>
+    <row r="3" spans="2:15" ht="24" customHeight="1">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="2:14" ht="11.25" customHeight="1"/>
-    <row r="5" spans="2:14" ht="11.25" customHeight="1">
+    <row r="4" spans="2:15" ht="11.25" customHeight="1"/>
+    <row r="5" spans="2:15" ht="11.25" customHeight="1">
       <c r="N5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="18" customHeight="1">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:15" ht="18" customHeight="1">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:14" ht="18" customHeight="1">
+    <row r="7" spans="2:15" ht="18" customHeight="1">
       <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="2:14" ht="18" customHeight="1">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:15" ht="18" customHeight="1">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="E8" s="10"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="2:14" ht="18" customHeight="1">
-      <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10"/>
+    <row r="9" spans="2:15" ht="18" customHeight="1">
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="17"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1">
-      <c r="B10" s="19" t="s">
-        <v>18</v>
+    <row r="10" spans="2:15" ht="18" customHeight="1">
+      <c r="B10" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="2:14" ht="18" customHeight="1">
+    <row r="11" spans="2:15" ht="18" customHeight="1">
       <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="2:14" ht="24.75" customHeight="1">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="2:15" ht="24.75" customHeight="1">
+      <c r="B12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="2:15" ht="36" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="2:14" ht="36" customHeight="1">
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="11.25" customHeight="1"/>
-    <row r="15" spans="2:14" ht="11.25" customHeight="1"/>
-    <row r="16" spans="2:14" ht="11.25" customHeight="1"/>
+    <row r="14" spans="2:15" ht="11.25" customHeight="1"/>
+    <row r="15" spans="2:15" ht="11.25" customHeight="1"/>
+    <row r="16" spans="2:15" ht="11.25" customHeight="1"/>
     <row r="17" ht="11.25" customHeight="1"/>
     <row r="18" ht="11.25" customHeight="1"/>
     <row r="19" ht="11.25" customHeight="1"/>
@@ -1894,6 +1897,11 @@
     <row r="996" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H8:I9"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D6:D7"/>
@@ -1907,14 +1915,9 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H8:I9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>